--- a/database/industries/shoyande/kimiatec/product/yearly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A986CC5D-CD54-44EA-ACDA-F44D1FA28166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیاتک-آریان کیمیا تک</t>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +279,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -290,7 +291,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -337,6 +338,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -372,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1415,8 +1450,8 @@
       <c r="H49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>11</v>
+      <c r="I49" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">

--- a/database/industries/shoyande/kimiatec/product/yearly.xlsx
+++ b/database/industries/shoyande/kimiatec/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\kimiatec\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A986CC5D-CD54-44EA-ACDA-F44D1FA28166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF7F10C-9ACE-4DED-A535-60A1EFDC067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="29">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>سایر / تخفیفات</t>
   </si>
   <si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>تعداد / ریال</t>
@@ -204,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -237,12 +240,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,16 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I74"/>
+  <dimension ref="B1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -578,7 +575,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +587,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -602,7 +599,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -612,7 +609,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -624,7 +621,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -636,7 +633,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -646,7 +643,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -668,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -678,7 +675,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -693,14 +690,14 @@
       <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>11</v>
+      <c r="H10" s="9">
+        <v>0</v>
       </c>
       <c r="I10" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -717,14 +714,14 @@
       <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>11</v>
+      <c r="H11" s="11">
+        <v>12644030</v>
       </c>
       <c r="I11" s="11">
-        <v>12644030</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8848735</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -733,22 +730,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>14130127</v>
+        <v>9875448</v>
       </c>
       <c r="F12" s="9">
-        <v>9875448</v>
+        <v>13588184</v>
       </c>
       <c r="G12" s="9">
-        <v>13588184</v>
-      </c>
-      <c r="H12" s="9">
         <v>17145081</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -765,14 +762,14 @@
       <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>11</v>
+      <c r="H13" s="11">
+        <v>32934318</v>
       </c>
       <c r="I13" s="11">
-        <v>32934318</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>41022981</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
@@ -781,22 +778,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>9707205</v>
+        <v>11542043</v>
       </c>
       <c r="F14" s="9">
-        <v>11542043</v>
+        <v>21072160</v>
       </c>
       <c r="G14" s="9">
-        <v>21072160</v>
-      </c>
-      <c r="H14" s="9">
         <v>37295775</v>
       </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
@@ -813,14 +810,14 @@
       <c r="G15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>11</v>
+      <c r="H15" s="11">
+        <v>7931796</v>
       </c>
       <c r="I15" s="11">
-        <v>7931796</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18867913</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -829,44 +826,44 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>8785774</v>
+        <v>5662712</v>
       </c>
       <c r="F16" s="9">
-        <v>5662712</v>
+        <v>9935960</v>
       </c>
       <c r="G16" s="9">
-        <v>9935960</v>
-      </c>
-      <c r="H16" s="9">
         <v>8356220</v>
       </c>
+      <c r="H16" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="I16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>32623106</v>
+        <v>27080203</v>
       </c>
       <c r="F17" s="13">
-        <v>27080203</v>
+        <v>44596304</v>
       </c>
       <c r="G17" s="13">
-        <v>44596304</v>
+        <v>62797076</v>
       </c>
       <c r="H17" s="13">
-        <v>62797076</v>
+        <v>53510144</v>
       </c>
       <c r="I17" s="13">
-        <v>53510144</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68739629</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -876,7 +873,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -886,7 +883,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -896,7 +893,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
@@ -918,7 +915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -928,7 +925,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>19</v>
       </c>
@@ -936,14 +933,14 @@
         <v>20</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>11</v>
+      <c r="E23" s="9">
+        <v>0</v>
       </c>
       <c r="F23" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
-        <v>0</v>
+      <c r="G23" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>11</v>
@@ -952,29 +949,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>11</v>
+      <c r="E24" s="11">
+        <v>0</v>
       </c>
       <c r="F24" s="11">
         <v>0</v>
       </c>
-      <c r="G24" s="11">
-        <v>0</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>11</v>
+      <c r="G24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
@@ -982,175 +979,145 @@
         <v>13</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>11</v>
+      <c r="E25" s="9">
+        <v>11088119</v>
       </c>
       <c r="F25" s="9">
-        <v>11088119</v>
+        <v>13705962</v>
       </c>
       <c r="G25" s="9">
-        <v>13705962</v>
+        <v>15412552</v>
       </c>
       <c r="H25" s="9">
-        <v>15412552</v>
+        <v>13652901</v>
       </c>
       <c r="I25" s="9">
-        <v>13652901</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15765055</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11">
-        <v>13419962</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9331850</v>
+      </c>
+      <c r="F26" s="11">
+        <v>22820733</v>
+      </c>
+      <c r="G26" s="11">
+        <v>36103174</v>
+      </c>
+      <c r="H26" s="11">
+        <v>35751198</v>
+      </c>
+      <c r="I26" s="11">
+        <v>37608529</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>11</v>
+      <c r="E27" s="9">
+        <v>5915937</v>
       </c>
       <c r="F27" s="9">
-        <v>9331850</v>
+        <v>8736282</v>
       </c>
       <c r="G27" s="9">
-        <v>22820733</v>
+        <v>8163557</v>
       </c>
       <c r="H27" s="9">
-        <v>36103174</v>
+        <v>9128726</v>
       </c>
       <c r="I27" s="9">
-        <v>35751198</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11">
-        <v>8768630</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="9">
-        <v>5915937</v>
-      </c>
-      <c r="G29" s="9">
-        <v>8736282</v>
-      </c>
-      <c r="H29" s="9">
-        <v>8163557</v>
-      </c>
-      <c r="I29" s="9">
-        <v>9128726</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>6427005</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+        <v>14391206</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15">
-        <v>28615597</v>
-      </c>
-      <c r="F31" s="15">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13">
         <v>26335906</v>
       </c>
-      <c r="G31" s="15">
+      <c r="F28" s="13">
         <v>45262977</v>
       </c>
-      <c r="H31" s="15">
+      <c r="G28" s="13">
         <v>59679283</v>
       </c>
-      <c r="I31" s="15">
+      <c r="H28" s="13">
         <v>58532825</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="13">
+        <v>67764790</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1160,201 +1127,201 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>1359663</v>
+      </c>
+      <c r="F36" s="9">
+        <v>2267415</v>
+      </c>
+      <c r="G36" s="9">
+        <v>3471140</v>
+      </c>
+      <c r="H36" s="9">
+        <v>4211820</v>
+      </c>
+      <c r="I36" s="9">
+        <v>5074506</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
+        <v>885038</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2548231</v>
+      </c>
+      <c r="G37" s="11">
+        <v>6654345</v>
+      </c>
+      <c r="H37" s="11">
+        <v>8770038</v>
+      </c>
+      <c r="I37" s="11">
+        <v>13892660</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9">
+        <v>758310</v>
+      </c>
+      <c r="F38" s="9">
+        <v>1752164</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2500594</v>
+      </c>
+      <c r="H38" s="9">
+        <v>4228251</v>
+      </c>
+      <c r="I38" s="9">
+        <v>8293561</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13">
+        <v>3003011</v>
+      </c>
+      <c r="F39" s="13">
+        <v>6567810</v>
+      </c>
+      <c r="G39" s="13">
+        <v>12626079</v>
+      </c>
+      <c r="H39" s="13">
+        <v>17210109</v>
+      </c>
+      <c r="I39" s="13">
+        <v>27260727</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G43" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H43" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="9">
-        <v>0</v>
-      </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>921936</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1359663</v>
-      </c>
-      <c r="G39" s="9">
-        <v>2267415</v>
-      </c>
-      <c r="H39" s="9">
-        <v>3471140</v>
-      </c>
-      <c r="I39" s="9">
-        <v>4211820</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11">
-        <v>570764</v>
-      </c>
-      <c r="F40" s="11">
-        <v>885038</v>
-      </c>
-      <c r="G40" s="11">
-        <v>2548231</v>
-      </c>
-      <c r="H40" s="11">
-        <v>6654345</v>
-      </c>
-      <c r="I40" s="11">
-        <v>8770038</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>600032</v>
-      </c>
-      <c r="F41" s="9">
-        <v>758310</v>
-      </c>
-      <c r="G41" s="9">
-        <v>1752164</v>
-      </c>
-      <c r="H41" s="9">
-        <v>2500594</v>
-      </c>
-      <c r="I41" s="9">
-        <v>4228251</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13">
-        <v>2092732</v>
-      </c>
-      <c r="F42" s="13">
-        <v>3003011</v>
-      </c>
-      <c r="G42" s="13">
-        <v>6567810</v>
-      </c>
-      <c r="H42" s="13">
-        <v>12626079</v>
-      </c>
-      <c r="I42" s="13">
-        <v>17210109</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1364,179 +1331,179 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9">
+        <v>122623</v>
+      </c>
+      <c r="F47" s="9">
+        <v>165433</v>
+      </c>
+      <c r="G47" s="9">
+        <v>225215</v>
+      </c>
+      <c r="H47" s="9">
+        <v>308493</v>
+      </c>
+      <c r="I47" s="9">
+        <v>321883</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11">
+        <v>94841</v>
+      </c>
+      <c r="F48" s="11">
+        <v>111663</v>
+      </c>
+      <c r="G48" s="11">
+        <v>184315</v>
+      </c>
+      <c r="H48" s="11">
+        <v>245308</v>
+      </c>
+      <c r="I48" s="11">
+        <v>369402</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9">
+        <v>128181</v>
+      </c>
+      <c r="F49" s="9">
+        <v>200562</v>
+      </c>
+      <c r="G49" s="9">
+        <v>306312</v>
+      </c>
+      <c r="H49" s="9">
+        <v>463181</v>
+      </c>
+      <c r="I49" s="9">
+        <v>576294</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H53" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="11">
-        <v>0</v>
-      </c>
-      <c r="G49" s="11">
-        <v>0</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9">
-        <v>68699</v>
-      </c>
-      <c r="F50" s="9">
-        <v>122623</v>
-      </c>
-      <c r="G50" s="9">
-        <v>165433</v>
-      </c>
-      <c r="H50" s="9">
-        <v>225215</v>
-      </c>
-      <c r="I50" s="9">
-        <v>308493</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11">
-        <v>65092</v>
-      </c>
-      <c r="F51" s="11">
-        <v>94841</v>
-      </c>
-      <c r="G51" s="11">
-        <v>111663</v>
-      </c>
-      <c r="H51" s="11">
-        <v>184315</v>
-      </c>
-      <c r="I51" s="11">
-        <v>245308</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9">
-        <v>93361</v>
-      </c>
-      <c r="F52" s="9">
-        <v>128181</v>
-      </c>
-      <c r="G52" s="9">
-        <v>200562</v>
-      </c>
-      <c r="H52" s="9">
-        <v>306312</v>
-      </c>
-      <c r="I52" s="9">
-        <v>463181</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1546,201 +1513,201 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
+        <v>0</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9">
+        <v>-730218</v>
+      </c>
+      <c r="F57" s="9">
+        <v>-1121117</v>
+      </c>
+      <c r="G57" s="9">
+        <v>-1564823</v>
+      </c>
+      <c r="H57" s="9">
+        <v>-1913549</v>
+      </c>
+      <c r="I57" s="9">
+        <v>-2990268</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
+        <v>-490621</v>
+      </c>
+      <c r="F58" s="11">
+        <v>-1206360</v>
+      </c>
+      <c r="G58" s="11">
+        <v>-3700184</v>
+      </c>
+      <c r="H58" s="11">
+        <v>-5143300</v>
+      </c>
+      <c r="I58" s="11">
+        <v>-8475190</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9">
+        <v>-447268</v>
+      </c>
+      <c r="F59" s="9">
+        <v>-944998</v>
+      </c>
+      <c r="G59" s="9">
+        <v>-1202975</v>
+      </c>
+      <c r="H59" s="9">
+        <v>-2151941</v>
+      </c>
+      <c r="I59" s="9">
+        <v>-3698601</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13">
+        <v>-1668107</v>
+      </c>
+      <c r="F60" s="13">
+        <v>-3272475</v>
+      </c>
+      <c r="G60" s="13">
+        <v>-6467982</v>
+      </c>
+      <c r="H60" s="13">
+        <v>-9208790</v>
+      </c>
+      <c r="I60" s="13">
+        <v>-15164059</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B64" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="H64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I56" s="6" t="s">
+      <c r="I64" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B60" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="9">
-        <v>-730218</v>
-      </c>
-      <c r="G60" s="9">
-        <v>-1121117</v>
-      </c>
-      <c r="H60" s="9">
-        <v>-1564823</v>
-      </c>
-      <c r="I60" s="9">
-        <v>-1913549</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="11">
-        <v>-490621</v>
-      </c>
-      <c r="G61" s="11">
-        <v>-1206360</v>
-      </c>
-      <c r="H61" s="11">
-        <v>-3700184</v>
-      </c>
-      <c r="I61" s="11">
-        <v>-5143300</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="9">
-        <v>-447268</v>
-      </c>
-      <c r="G62" s="9">
-        <v>-944998</v>
-      </c>
-      <c r="H62" s="9">
-        <v>-1202975</v>
-      </c>
-      <c r="I62" s="9">
-        <v>-2151941</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B63" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-      <c r="F63" s="13">
-        <v>-1668107</v>
-      </c>
-      <c r="G63" s="13">
-        <v>-3272475</v>
-      </c>
-      <c r="H63" s="13">
-        <v>-6467982</v>
-      </c>
-      <c r="I63" s="13">
-        <v>-9208790</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1750,188 +1717,146 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="8" t="s">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C66" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69" s="9">
-        <v>0</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70" s="11">
-        <v>0</v>
-      </c>
-      <c r="G70" s="11">
-        <v>0</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I70" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="8" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
+        <v>0</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="11">
+        <v>0</v>
+      </c>
+      <c r="I67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71" s="9">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9">
         <v>629445</v>
       </c>
-      <c r="G71" s="9">
+      <c r="F68" s="9">
         <v>1146298</v>
       </c>
-      <c r="H71" s="9">
+      <c r="G68" s="9">
         <v>1906317</v>
       </c>
-      <c r="I71" s="9">
+      <c r="H68" s="9">
         <v>2298271</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
+      <c r="I68" s="9">
+        <v>2084238</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="11">
+      <c r="D69" s="11"/>
+      <c r="E69" s="11">
         <v>394417</v>
       </c>
-      <c r="G72" s="11">
+      <c r="F69" s="11">
         <v>1341871</v>
       </c>
-      <c r="H72" s="11">
+      <c r="G69" s="11">
         <v>2954161</v>
       </c>
-      <c r="I72" s="11">
+      <c r="H69" s="11">
         <v>3626738</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="8" t="s">
+      <c r="I69" s="11">
+        <v>5417470</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" s="9">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9">
         <v>311042</v>
       </c>
-      <c r="G73" s="9">
+      <c r="F70" s="9">
         <v>807166</v>
       </c>
-      <c r="H73" s="9">
+      <c r="G70" s="9">
         <v>1297619</v>
       </c>
-      <c r="I73" s="9">
+      <c r="H70" s="9">
         <v>2076310</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="12" t="s">
+      <c r="I70" s="9">
+        <v>4594960</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13">
         <v>1334904</v>
       </c>
-      <c r="G74" s="13">
+      <c r="F71" s="13">
         <v>3295335</v>
       </c>
-      <c r="H74" s="13">
+      <c r="G71" s="13">
         <v>6158097</v>
       </c>
-      <c r="I74" s="13">
+      <c r="H71" s="13">
         <v>8001319</v>
+      </c>
+      <c r="I71" s="13">
+        <v>12096668</v>
       </c>
     </row>
   </sheetData>
